--- a/Data/GEAR UP Nanocamp Paired Survey.xlsx
+++ b/Data/GEAR UP Nanocamp Paired Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saman\Desktop\Research\Nanocamp\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2A319D-476D-434F-98BD-6C694B2EE387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBC854C-4322-461D-935E-D5A6F3BE9AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>3B [I am good at most science experiments.]</t>
   </si>
   <si>
-    <t>8B  [I can talk with others about science related topics.]</t>
-  </si>
-  <si>
     <t xml:space="preserve">16B What is one of the most interesting things you learned about nanoscience this week? </t>
   </si>
   <si>
@@ -347,6 +344,9 @@
   </si>
   <si>
     <t>4B [I understand science topics.]</t>
+  </si>
+  <si>
+    <t>8B [I can talk with others about science related topics.]</t>
   </si>
 </sst>
 </file>
@@ -641,9 +641,9 @@
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -654,16 +654,16 @@
   <sheetData>
     <row r="1" spans="1:35" ht="155" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -702,7 +702,7 @@
         <v>25</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>26</v>
@@ -711,7 +711,7 @@
         <v>27</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>0</v>
@@ -723,13 +723,13 @@
         <v>2</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>4</v>
@@ -747,16 +747,16 @@
         <v>8</v>
       </c>
       <c r="AF1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="25" x14ac:dyDescent="0.25">
@@ -809,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>10</v>
@@ -827,13 +827,13 @@
         <v>10</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>10</v>
@@ -842,7 +842,7 @@
         <v>10</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>12</v>
@@ -854,14 +854,14 @@
         <v>12</v>
       </c>
       <c r="AF2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG2" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="25" x14ac:dyDescent="0.25">
@@ -914,10 +914,10 @@
         <v>12</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>10</v>
@@ -932,13 +932,13 @@
         <v>9</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>10</v>
@@ -956,19 +956,19 @@
         <v>10</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AH3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AI3" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="100" x14ac:dyDescent="0.25">
@@ -1054,25 +1054,25 @@
         <v>10</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AF4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AH4" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="AH4" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="AI4" s="5"/>
     </row>
@@ -1126,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>10</v>
@@ -1138,10 +1138,10 @@
         <v>10</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>10</v>
@@ -1156,7 +1156,7 @@
         <v>9</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB5" s="2" t="s">
         <v>10</v>
@@ -1168,19 +1168,19 @@
         <v>10</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AH5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AI5" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="AI5" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="62.5" x14ac:dyDescent="0.25">
@@ -1233,7 +1233,7 @@
         <v>10</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>12</v>
@@ -1248,7 +1248,7 @@
         <v>10</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>10</v>
@@ -1257,19 +1257,19 @@
         <v>10</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD6" s="2" t="s">
         <v>10</v>
@@ -1278,16 +1278,16 @@
         <v>12</v>
       </c>
       <c r="AF6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AG6" s="5" t="s">
+      <c r="AH6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AH6" s="5" t="s">
+      <c r="AI6" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="AI6" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="50" x14ac:dyDescent="0.25">
@@ -1340,19 +1340,19 @@
         <v>10</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>10</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>10</v>
@@ -1385,10 +1385,10 @@
         <v>10</v>
       </c>
       <c r="AF7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG7" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="AG7" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
@@ -1446,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>10</v>
@@ -1467,7 +1467,7 @@
         <v>9</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z8" s="2" t="s">
         <v>10</v>
@@ -1476,10 +1476,10 @@
         <v>10</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD8" s="2" t="s">
         <v>12</v>
@@ -1488,16 +1488,16 @@
         <v>9</v>
       </c>
       <c r="AF8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AG8" s="5" t="s">
+      <c r="AH8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AH8" s="5" t="s">
+      <c r="AI8" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="AI8" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
@@ -1550,19 +1550,19 @@
         <v>12</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>9</v>
@@ -1571,7 +1571,7 @@
         <v>10</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>10</v>
@@ -1580,31 +1580,31 @@
         <v>10</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AG9" s="5" t="s">
+      <c r="AH9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AH9" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="AI9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="187.5" x14ac:dyDescent="0.25">
@@ -1666,7 +1666,7 @@
         <v>10</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>10</v>
@@ -1687,31 +1687,31 @@
         <v>10</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AG10" s="5" t="s">
+      <c r="AH10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AH10" s="5" t="s">
+      <c r="AI10" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="AI10" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="75" x14ac:dyDescent="0.25">
@@ -1800,7 +1800,7 @@
         <v>10</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD11" s="2" t="s">
         <v>10</v>
@@ -1809,16 +1809,16 @@
         <v>10</v>
       </c>
       <c r="AF11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AG11" s="5" t="s">
+      <c r="AH11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AH11" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="AI11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="100" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
         <v>10</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>10</v>
@@ -1904,28 +1904,28 @@
         <v>9</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AF12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AG12" s="5" t="s">
+      <c r="AH12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="5" t="s">
+      <c r="AI12" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="AI12" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="62.5" x14ac:dyDescent="0.25">
@@ -1984,13 +1984,13 @@
         <v>12</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V13" s="2" t="s">
         <v>10</v>
@@ -2002,37 +2002,37 @@
         <v>10</v>
       </c>
       <c r="Y13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="Z13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF13" s="5" t="s">
+      <c r="AG13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AG13" s="5" t="s">
+      <c r="AH13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AH13" s="5" t="s">
+      <c r="AI13" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="AI13" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="75" x14ac:dyDescent="0.25">
@@ -2130,13 +2130,13 @@
         <v>9</v>
       </c>
       <c r="AF14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AG14" s="5" t="s">
+      <c r="AH14" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="AH14" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="AI14" s="5"/>
     </row>
@@ -2193,56 +2193,56 @@
         <v>10</v>
       </c>
       <c r="R15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF15" s="5" t="s">
+      <c r="AG15" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="AG15" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="125" x14ac:dyDescent="0.25">
@@ -2298,13 +2298,13 @@
         <v>10</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>10</v>
@@ -2325,28 +2325,28 @@
         <v>10</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AG16" s="5" t="s">
+      <c r="AH16" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="AH16" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="AI16" s="5"/>
     </row>
@@ -2403,16 +2403,16 @@
         <v>10</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>10</v>
@@ -2430,13 +2430,13 @@
         <v>10</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD17" s="2" t="s">
         <v>10</v>
@@ -2445,16 +2445,16 @@
         <v>10</v>
       </c>
       <c r="AF17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG17" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG17" s="5" t="s">
+      <c r="AH17" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AH17" s="5" t="s">
+      <c r="AI17" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="AI17" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="75" x14ac:dyDescent="0.25">
@@ -2483,7 +2483,7 @@
         <v>12</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>10</v>
@@ -2492,10 +2492,10 @@
         <v>10</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>10</v>
@@ -2522,13 +2522,13 @@
         <v>12</v>
       </c>
       <c r="AF18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AG18" s="5" t="s">
+      <c r="AH18" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="AH18" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="AI18" s="5"/>
     </row>
@@ -2612,31 +2612,31 @@
         <v>10</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AG19" s="5" t="s">
+      <c r="AH19" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AH19" s="5" t="s">
+      <c r="AI19" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="AI19" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="50" x14ac:dyDescent="0.25">
@@ -2689,7 +2689,7 @@
         <v>10</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>10</v>
@@ -2710,40 +2710,40 @@
         <v>10</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AF20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AG20" s="5" t="s">
+      <c r="AH20" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AH20" s="5" t="s">
+      <c r="AI20" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="AI20" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="12.5" x14ac:dyDescent="0.25">
